--- a/Agile/ProductThreeInts - UserStory.xlsx
+++ b/Agile/ProductThreeInts - UserStory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\OneDrive\Documents\GitHub\CollegeWork\Agile\ProductThreeInts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e01d311e910b9f16/Documents/GitHub/CollegeWork/Agile/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F40124-BE49-42AF-A79E-54979B707A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1908" yWindow="2316" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
